--- a/doc/工作周报/2018-03月-工作周报/赵虎-3月-第4周-工作周报.xlsx
+++ b/doc/工作周报/2018-03月-工作周报/赵虎-3月-第4周-工作周报.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4FE9B4C3-000D-4E4C-876A-28A8D690EC9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018年3月" sheetId="1" r:id="rId1"/>
@@ -36,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、参加项目周会，讨论本周工作任务；
 2、完成车辆站点维护页面，新增站点，地图选点功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,13 +57,17 @@
   </si>
   <si>
     <t>1、百度地图第三方控件开发，区域布控空能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -548,7 +549,7 @@
         <v>43185</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -556,7 +557,7 @@
         <v>43186</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -564,7 +565,7 @@
         <v>43187</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -572,7 +573,7 @@
         <v>43188</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -580,7 +581,7 @@
         <v>43189</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
